--- a/data/trans_orig/IP38E_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP38E_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09A76FEB-9346-4A16-8B1D-1F59ED3A403A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A4C52D2-E926-42E1-B9E6-77882E45FEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5447D298-A946-429D-BB07-C4F0BB2960DF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7F85E1DF-6477-46B4-9613-703677990682}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <t>23,67%</t>
   </si>
   <si>
-    <t>68,57%</t>
+    <t>70,1%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>76,33%</t>
   </si>
   <si>
-    <t>31,43%</t>
+    <t>29,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -119,19 +119,19 @@
     <t>83,83%</t>
   </si>
   <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
   <si>
     <t>77,54%</t>
   </si>
   <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
   </si>
   <si>
     <t>81,17%</t>
@@ -140,31 +140,31 @@
     <t>67,99%</t>
   </si>
   <si>
-    <t>90,0%</t>
+    <t>90,83%</t>
   </si>
   <si>
     <t>16,17%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
   </si>
   <si>
     <t>22,46%</t>
   </si>
   <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
   </si>
   <si>
     <t>18,83%</t>
   </si>
   <si>
-    <t>10,0%</t>
+    <t>9,17%</t>
   </si>
   <si>
     <t>32,01%</t>
@@ -197,55 +197,55 @@
     <t>79,7%</t>
   </si>
   <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
   </si>
   <si>
     <t>80,57%</t>
   </si>
   <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
   </si>
   <si>
     <t>80,06%</t>
   </si>
   <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
   </si>
   <si>
     <t>20,3%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
   </si>
   <si>
     <t>19,43%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
   </si>
   <si>
     <t>19,94%</t>
   </si>
   <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -660,7 +660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2466E8-CCD9-497F-B51C-808D375EADC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95010406-BC6D-4907-93BA-FBF38B062FCE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP38E_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP38E_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A4C52D2-E926-42E1-B9E6-77882E45FEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05CC96A0-189A-46C6-9539-042D1377708A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7F85E1DF-6477-46B4-9613-703677990682}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E25AD7C4-A6FD-4923-AFBF-B120828169EA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="71">
-  <si>
-    <t>Adulto que aporta más ingresos al hogar según si trabaja actualmente en 2023 (Tasa respuesta: 4,74%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
+  <si>
+    <t>Adulto que aporta más ingresos al hogar según si trabaja actualmente en 2023 (Tasa respuesta: 31,3%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,181 +71,229 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>10,84%</t>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -660,7 +708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95010406-BC6D-4907-93BA-FBF38B062FCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF48E93F-CE49-4B05-B05A-D605E457A7DF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -778,10 +826,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>372</v>
+        <v>14314</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -793,85 +841,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>779</v>
+        <v>19305</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="N4" s="7">
-        <v>1151</v>
+        <v>33619</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4322</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7">
+        <v>9138</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3055</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>656</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="7">
-        <v>4</v>
-      </c>
       <c r="N5" s="7">
-        <v>3711</v>
+        <v>13460</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -880,153 +928,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7">
-        <v>3427</v>
+        <v>18636</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="I6" s="7">
-        <v>1435</v>
+        <v>28443</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="N6" s="7">
-        <v>4862</v>
+        <v>47079</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>182</v>
+      </c>
+      <c r="D7" s="7">
+        <v>126206</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="7">
-        <v>20805</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="I7" s="7">
-        <v>14077</v>
+        <v>154434</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>56</v>
+        <v>391</v>
       </c>
       <c r="N7" s="7">
-        <v>34881</v>
+        <v>280640</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7">
+        <v>22951</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7">
         <v>18</v>
       </c>
-      <c r="C8" s="7">
-        <v>5</v>
-      </c>
-      <c r="D8" s="7">
-        <v>4013</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="7">
-        <v>6</v>
-      </c>
       <c r="I8" s="7">
-        <v>4078</v>
+        <v>13647</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="N8" s="7">
-        <v>8091</v>
+        <v>36598</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1035,108 +1083,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="D9" s="7">
-        <v>24818</v>
+        <v>149157</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="I9" s="7">
-        <v>18155</v>
+        <v>168081</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>67</v>
+        <v>439</v>
       </c>
       <c r="N9" s="7">
-        <v>42972</v>
+        <v>317238</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D10" s="7">
-        <v>6574</v>
+        <v>27726</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>4775</v>
+        <v>39897</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="N10" s="7">
-        <v>11349</v>
+        <v>67622</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1145,43 +1193,43 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>1542</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>1543</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1190,49 +1238,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7">
-        <v>6574</v>
+        <v>27726</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>4775</v>
+        <v>41439</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="N12" s="7">
-        <v>11349</v>
+        <v>69165</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1243,100 +1291,100 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="D13" s="7">
-        <v>27749</v>
+        <v>168247</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>32</v>
+        <v>285</v>
       </c>
       <c r="I13" s="7">
-        <v>19632</v>
+        <v>213635</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
+        <v>532</v>
+      </c>
+      <c r="N13" s="7">
+        <v>381882</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="N13" s="7">
-        <v>47381</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>7069</v>
+        <v>27272</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I14" s="7">
-        <v>4733</v>
+        <v>24328</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="N14" s="7">
-        <v>11802</v>
+        <v>51600</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1345,54 +1393,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>52</v>
+        <v>283</v>
       </c>
       <c r="D15" s="7">
-        <v>34818</v>
+        <v>195519</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>39</v>
+        <v>318</v>
       </c>
       <c r="I15" s="7">
-        <v>24365</v>
+        <v>237963</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>91</v>
+        <v>601</v>
       </c>
       <c r="N15" s="7">
-        <v>59183</v>
+        <v>433482</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
